--- a/BackTest/2019-10-26 BackTest MCO.xlsx
+++ b/BackTest/2019-10-26 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,19 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4568</v>
       </c>
       <c r="J6" t="n">
         <v>4568</v>
       </c>
-      <c r="K6" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +620,23 @@
         <v>4792.551700000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4568</v>
       </c>
       <c r="J7" t="n">
         <v>4568</v>
       </c>
-      <c r="K7" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +661,23 @@
         <v>4686.816700000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4648</v>
       </c>
       <c r="J8" t="n">
-        <v>4648</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +702,23 @@
         <v>4718.416700000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4565</v>
       </c>
       <c r="J9" t="n">
-        <v>4565</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +743,23 @@
         <v>4715.416700000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4639</v>
       </c>
       <c r="J10" t="n">
-        <v>4639</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +784,23 @@
         <v>4721.416269290003</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4636</v>
       </c>
       <c r="J11" t="n">
-        <v>4636</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +825,21 @@
         <v>5981.137969290003</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>4637</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +864,21 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>4650</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +903,21 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>4691</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +942,21 @@
         <v>7647.628769290003</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>4691</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +981,21 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>4709</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1020,21 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>4710</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1150,22 +1061,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1190,26 +1098,21 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>4776</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,22 +1139,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1278,22 +1178,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1320,22 +1217,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1360,26 +1254,21 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>4724</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>4568</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1406,22 +1295,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1448,22 +1334,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1490,22 +1373,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,22 +1412,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1574,22 +1451,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,22 +1490,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1658,22 +1529,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1700,22 +1568,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1742,22 +1607,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1784,22 +1646,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1826,22 +1685,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1868,22 +1724,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1910,22 +1763,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1952,22 +1802,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1994,22 +1841,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2036,22 +1880,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2078,22 +1919,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2120,22 +1958,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2162,22 +1997,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2202,25 +2034,22 @@
         <v>13889.77176929</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4646</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="L43" t="n">
+        <v>1.101611208406305</v>
+      </c>
       <c r="M43" t="n">
-        <v>1.08303271631511</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.000861326442722</v>
+        <v>1.017513134851138</v>
       </c>
     </row>
     <row r="44">
@@ -2246,18 +2075,15 @@
         <v>14205.53316929</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2282,18 +2108,15 @@
         <v>13909.72356929</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2318,18 +2141,15 @@
         <v>13909.72356929</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2354,18 +2174,15 @@
         <v>13938.62056929</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2392,16 +2209,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,16 +2242,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2464,16 +2275,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2500,16 +2308,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2536,16 +2341,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2572,16 +2374,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2608,16 +2407,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2644,16 +2440,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2680,16 +2473,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2716,16 +2506,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2752,16 +2539,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2788,16 +2572,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2824,16 +2605,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2860,16 +2638,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2896,16 +2671,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2932,16 +2704,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2968,16 +2737,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3004,16 +2770,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3040,16 +2803,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3076,16 +2836,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3112,16 +2869,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3148,16 +2902,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3184,16 +2935,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3220,16 +2968,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3256,16 +3001,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3292,16 +3034,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3328,16 +3067,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3362,18 +3098,15 @@
         <v>14220.76226555</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3400,16 +3133,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3436,16 +3166,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3470,18 +3197,15 @@
         <v>14137.77941052</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3508,16 +3232,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3544,16 +3265,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3580,16 +3298,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3616,16 +3331,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3650,18 +3362,15 @@
         <v>14062.77249842</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3686,18 +3395,15 @@
         <v>14069.02249842</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3722,18 +3428,15 @@
         <v>14069.02249842</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,16 +3463,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3794,18 +3494,15 @@
         <v>14053.42249842</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,16 +3529,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3868,16 +3562,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3904,16 +3595,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3938,18 +3626,15 @@
         <v>14122.4928403</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3974,18 +3659,15 @@
         <v>14191.8653403</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4012,16 +3694,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,18 +3725,15 @@
         <v>14055.84284030001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4082,18 +3758,15 @@
         <v>14105.98404030001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4120,16 +3793,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4156,16 +3826,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4192,16 +3859,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4228,16 +3892,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4264,16 +3925,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4300,16 +3958,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4336,16 +3991,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4372,16 +4024,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4408,16 +4057,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4444,16 +4090,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4480,16 +4123,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4516,16 +4156,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4552,16 +4189,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4588,16 +4222,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4624,16 +4255,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4660,16 +4288,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4696,16 +4321,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4732,16 +4354,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4768,16 +4387,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4804,16 +4420,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4840,16 +4453,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4876,18 +4486,15 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MCO.xlsx
+++ b/BackTest/2019-10-26 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4646</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4646</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +603,19 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4568</v>
       </c>
       <c r="J6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>4646</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +644,17 @@
         <v>4792.551700000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4568</v>
       </c>
       <c r="J7" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,13 +685,13 @@
         <v>4686.816700000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4648</v>
       </c>
       <c r="J8" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -702,13 +726,13 @@
         <v>4718.416700000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4565</v>
       </c>
       <c r="J9" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -743,13 +767,13 @@
         <v>4715.416700000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4639</v>
       </c>
       <c r="J10" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -784,13 +808,13 @@
         <v>4721.416269290003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4636</v>
       </c>
       <c r="J11" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,11 +849,13 @@
         <v>5981.137969290003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4637</v>
+      </c>
       <c r="J12" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -864,11 +890,13 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4650</v>
+      </c>
       <c r="J13" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -903,11 +931,13 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4691</v>
+      </c>
       <c r="J14" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -942,11 +972,13 @@
         <v>7647.628769290003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4691</v>
+      </c>
       <c r="J15" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -981,11 +1013,13 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4709</v>
+      </c>
       <c r="J16" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1020,11 +1054,13 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4710</v>
+      </c>
       <c r="J17" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1059,11 +1095,13 @@
         <v>10258.02726929</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4717</v>
+      </c>
       <c r="J18" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1098,11 +1136,13 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4776</v>
+      </c>
       <c r="J19" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1141,7 +1181,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1176,11 +1216,13 @@
         <v>9729.476069290004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4725</v>
+      </c>
       <c r="J21" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1219,7 +1261,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1254,11 +1296,13 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4724</v>
+      </c>
       <c r="J23" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1297,7 +1341,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1336,7 +1380,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1375,7 +1419,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1414,7 +1458,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1453,7 +1497,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1492,7 +1536,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1531,7 +1575,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1570,7 +1614,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1609,7 +1653,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1648,7 +1692,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1687,7 +1731,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1726,7 +1770,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1765,7 +1809,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1804,7 +1848,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1843,7 +1887,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1882,7 +1926,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1921,7 +1965,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1960,7 +2004,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1999,7 +2043,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2034,23 +2078,21 @@
         <v>13889.77176929</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.101611208406305</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.017513134851138</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2075,11 +2117,17 @@
         <v>14205.53316929</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2108,11 +2156,17 @@
         <v>13909.72356929</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2195,17 @@
         <v>13909.72356929</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2174,11 +2234,17 @@
         <v>13938.62056929</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2210,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2243,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2276,8 +2354,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2309,8 +2393,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2342,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2375,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2408,8 +2510,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2441,8 +2549,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2471,15 +2585,23 @@
         <v>14152.40006555</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.080880327163151</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.000861326442722</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2504,7 +2626,7 @@
         <v>14059.40006555</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2537,7 +2659,7 @@
         <v>13994.76036555</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2570,7 +2692,7 @@
         <v>14011.02746555</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2603,7 +2725,7 @@
         <v>13981.36416555</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2636,7 +2758,7 @@
         <v>14141.36416555</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2669,7 +2791,7 @@
         <v>14134.21416555</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2702,7 +2824,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2735,7 +2857,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2768,7 +2890,7 @@
         <v>14065.42916555</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2801,7 +2923,7 @@
         <v>14016.32916555</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2834,7 +2956,7 @@
         <v>14016.42916555</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2867,7 +2989,7 @@
         <v>13992.42916555</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2900,7 +3022,7 @@
         <v>14093.01656555</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2933,7 +3055,7 @@
         <v>14068.01916555</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2966,7 +3088,7 @@
         <v>14067.91916555</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2999,7 +3121,7 @@
         <v>14064.78456555</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3032,7 +3154,7 @@
         <v>14093.78456555</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3065,7 +3187,7 @@
         <v>14140.76226555</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3098,7 +3220,7 @@
         <v>14220.76226555</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3197,7 +3319,7 @@
         <v>14137.77941052</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3362,7 +3484,7 @@
         <v>14062.77249842</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3395,7 +3517,7 @@
         <v>14069.02249842</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3428,7 +3550,7 @@
         <v>14069.02249842</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3494,7 +3616,7 @@
         <v>14053.42249842</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3626,7 +3748,7 @@
         <v>14122.4928403</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3659,7 +3781,7 @@
         <v>14191.8653403</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3725,7 +3847,7 @@
         <v>14055.84284030001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3758,7 +3880,7 @@
         <v>14105.98404030001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4022,7 +4144,7 @@
         <v>14150.39034030001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4286,7 +4408,7 @@
         <v>14270.33964030001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4319,7 +4441,7 @@
         <v>14279.15534030001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4495,6 +4617,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MCO.xlsx
+++ b/BackTest/2019-10-26 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4646</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,142 +517,130 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4681.178200000002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.0265</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4681.178200000002</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4568</v>
+      </c>
+      <c r="C7" t="n">
         <v>4648</v>
       </c>
-      <c r="J4" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="D7" t="n">
+        <v>4648</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4568</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111.3735</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4792.551700000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4568</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4568</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4681.178200000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.0265</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4681.178200000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4568</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4648</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4648</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4568</v>
-      </c>
-      <c r="F7" t="n">
-        <v>111.3735</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4792.551700000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -691,7 +675,7 @@
         <v>4648</v>
       </c>
       <c r="J8" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -732,7 +716,7 @@
         <v>4565</v>
       </c>
       <c r="J9" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -773,7 +757,7 @@
         <v>4639</v>
       </c>
       <c r="J10" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -814,7 +798,7 @@
         <v>4636</v>
       </c>
       <c r="J11" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -855,7 +839,7 @@
         <v>4637</v>
       </c>
       <c r="J12" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -890,13 +874,11 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -931,13 +913,11 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -978,7 +958,7 @@
         <v>4691</v>
       </c>
       <c r="J15" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1013,13 +993,11 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4709</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1054,13 +1032,11 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4710</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1095,21 +1071,19 @@
         <v>10258.02726929</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4717</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>4646</v>
+        <v>4568</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>1.04053415061296</v>
       </c>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -1136,19 +1110,11 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4776</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,17 +1143,11 @@
         <v>9698.306069290004</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1216,19 +1176,11 @@
         <v>9729.476069290004</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4725</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1257,17 +1209,11 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1242,11 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4724</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,17 +1275,11 @@
         <v>9815.149769290003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1376,17 +1308,11 @@
         <v>9833.074169290003</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,17 +1341,11 @@
         <v>10405.20116929</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1454,17 +1374,11 @@
         <v>10456.19126929</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1493,17 +1407,11 @@
         <v>12073.51996929</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1443,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1476,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1610,17 +1506,11 @@
         <v>12292.77976929</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1649,17 +1539,11 @@
         <v>12391.77976929</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1691,14 +1575,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1608,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1641,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1674,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1844,17 +1704,11 @@
         <v>12398.50786929</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1883,17 +1737,11 @@
         <v>12521.80126929</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1773,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1961,17 +1803,11 @@
         <v>12750.95066929</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1839,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1872,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1905,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1971,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +2004,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +2037,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +2070,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2103,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2136,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2169,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2202,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2235,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2268,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2301,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2585,23 +2331,15 @@
         <v>14152.40006555</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.080880327163151</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.000861326442722</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2626,7 +2364,7 @@
         <v>14059.40006555</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2659,7 +2397,7 @@
         <v>13994.76036555</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2692,7 +2430,7 @@
         <v>14011.02746555</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2725,7 +2463,7 @@
         <v>13981.36416555</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2758,7 +2496,7 @@
         <v>14141.36416555</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2791,7 +2529,7 @@
         <v>14134.21416555</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2824,7 +2562,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2857,7 +2595,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2890,7 +2628,7 @@
         <v>14065.42916555</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2923,7 +2661,7 @@
         <v>14016.32916555</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2956,7 +2694,7 @@
         <v>14016.42916555</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2989,7 +2727,7 @@
         <v>13992.42916555</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3022,7 +2760,7 @@
         <v>14093.01656555</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3055,7 +2793,7 @@
         <v>14068.01916555</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3088,7 +2826,7 @@
         <v>14067.91916555</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3121,7 +2859,7 @@
         <v>14064.78456555</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3154,7 +2892,7 @@
         <v>14093.78456555</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3187,7 +2925,7 @@
         <v>14140.76226555</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4144,7 +3882,7 @@
         <v>14150.39034030001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4408,7 +4146,7 @@
         <v>14270.33964030001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4441,7 +4179,7 @@
         <v>14279.15534030001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4617,6 +4355,6 @@
       <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MCO.xlsx
+++ b/BackTest/2019-10-26 BackTest MCO.xlsx
@@ -451,7 +451,7 @@
         <v>4654.769400000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4682.678200000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4646</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4646</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4681.178200000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,9 +568,13 @@
         <v>4568</v>
       </c>
       <c r="J5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>4646</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,11 +609,11 @@
         <v>4568</v>
       </c>
       <c r="J6" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -634,11 +650,11 @@
         <v>4568</v>
       </c>
       <c r="J7" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -675,7 +691,7 @@
         <v>4648</v>
       </c>
       <c r="J8" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -716,7 +732,7 @@
         <v>4565</v>
       </c>
       <c r="J9" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,7 +773,7 @@
         <v>4639</v>
       </c>
       <c r="J10" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -798,7 +814,7 @@
         <v>4636</v>
       </c>
       <c r="J11" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -839,7 +855,7 @@
         <v>4637</v>
       </c>
       <c r="J12" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +890,13 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4650</v>
+      </c>
       <c r="J13" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +931,13 @@
         <v>6897.158769290003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4691</v>
+      </c>
       <c r="J14" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -958,7 +978,7 @@
         <v>4691</v>
       </c>
       <c r="J15" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -993,11 +1013,13 @@
         <v>8552.628769290004</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4709</v>
+      </c>
       <c r="J16" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1032,11 +1054,13 @@
         <v>10221.22726929</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4710</v>
+      </c>
       <c r="J17" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1071,19 +1095,21 @@
         <v>10258.02726929</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4717</v>
+      </c>
       <c r="J18" t="n">
-        <v>4568</v>
+        <v>4646</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.04053415061296</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -1110,11 +1136,19 @@
         <v>10004.30606929</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4776</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1177,17 @@
         <v>9698.306069290004</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,11 +1216,19 @@
         <v>9729.476069290004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4725</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1209,11 +1257,17 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1296,19 @@
         <v>9673.149769290003</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4724</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1337,17 @@
         <v>9815.149769290003</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1376,17 @@
         <v>9833.074169290003</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1415,17 @@
         <v>10405.20116929</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1374,11 +1454,17 @@
         <v>10456.19126929</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1407,11 +1493,17 @@
         <v>12073.51996929</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1443,8 +1535,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1476,8 +1574,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1506,11 +1610,17 @@
         <v>12292.77976929</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1539,11 +1649,17 @@
         <v>12391.77976929</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1575,8 +1691,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1608,8 +1730,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1641,8 +1769,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1674,8 +1808,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1704,11 +1844,17 @@
         <v>12398.50786929</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1737,11 +1883,17 @@
         <v>12521.80126929</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1773,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1961,17 @@
         <v>12750.95066929</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1839,8 +2003,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1872,8 +2042,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1902,15 +2078,23 @@
         <v>13889.77176929</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4646</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>1.08303271631511</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.000861326442722</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1935,7 +2119,7 @@
         <v>14205.53316929</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2001,7 +2185,7 @@
         <v>13909.72356929</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2100,7 +2284,7 @@
         <v>14068.75366929</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2133,7 +2317,7 @@
         <v>14077.20146555</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2166,7 +2350,7 @@
         <v>14067.26146555</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2199,7 +2383,7 @@
         <v>14185.00628243</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2232,7 +2416,7 @@
         <v>14218.81098243</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2265,7 +2449,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2298,7 +2482,7 @@
         <v>14279.56346555</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2331,7 +2515,7 @@
         <v>14152.40006555</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2364,7 +2548,7 @@
         <v>14059.40006555</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2496,7 +2680,7 @@
         <v>14141.36416555</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2529,7 +2713,7 @@
         <v>14134.21416555</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2562,7 +2746,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2595,7 +2779,7 @@
         <v>14134.31416555</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2628,7 +2812,7 @@
         <v>14065.42916555</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2661,7 +2845,7 @@
         <v>14016.32916555</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2694,7 +2878,7 @@
         <v>14016.42916555</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest MCO.xlsx
+++ b/BackTest/2019-10-26 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>106</v>
       </c>
       <c r="G2" t="n">
-        <v>4654.769400000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>27.9088</v>
       </c>
       <c r="G3" t="n">
-        <v>4682.678200000002</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4646</v>
       </c>
       <c r="I3" t="n">
         <v>4646</v>
       </c>
-      <c r="J3" t="n">
-        <v>4646</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4681.178200000002</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4648</v>
       </c>
       <c r="I4" t="n">
-        <v>4648</v>
-      </c>
-      <c r="J4" t="n">
         <v>4646</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>0.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4681.178200000002</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4568</v>
       </c>
       <c r="I5" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J5" t="n">
         <v>4646</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>6.0265</v>
       </c>
       <c r="G6" t="n">
-        <v>4681.178200000002</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4568</v>
       </c>
       <c r="I6" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J6" t="n">
         <v>4646</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>111.3735</v>
       </c>
       <c r="G7" t="n">
-        <v>4792.551700000002</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4568</v>
       </c>
       <c r="I7" t="n">
-        <v>4568</v>
-      </c>
-      <c r="J7" t="n">
         <v>4646</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>105.735</v>
       </c>
       <c r="G8" t="n">
-        <v>4686.816700000002</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4648</v>
       </c>
       <c r="I8" t="n">
-        <v>4648</v>
-      </c>
-      <c r="J8" t="n">
         <v>4646</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>31.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4718.416700000002</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4565</v>
       </c>
       <c r="I9" t="n">
-        <v>4565</v>
-      </c>
-      <c r="J9" t="n">
         <v>4646</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,23 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>4715.416700000002</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4639</v>
       </c>
       <c r="I10" t="n">
-        <v>4639</v>
-      </c>
-      <c r="J10" t="n">
         <v>4646</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +773,23 @@
         <v>5.99956929</v>
       </c>
       <c r="G11" t="n">
-        <v>4721.416269290003</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4636</v>
       </c>
       <c r="I11" t="n">
-        <v>4636</v>
-      </c>
-      <c r="J11" t="n">
         <v>4646</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +811,23 @@
         <v>1259.7217</v>
       </c>
       <c r="G12" t="n">
-        <v>5981.137969290003</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4637</v>
       </c>
       <c r="I12" t="n">
-        <v>4637</v>
-      </c>
-      <c r="J12" t="n">
         <v>4646</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +849,23 @@
         <v>916.0208</v>
       </c>
       <c r="G13" t="n">
-        <v>6897.158769290003</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4650</v>
       </c>
       <c r="I13" t="n">
-        <v>4650</v>
-      </c>
-      <c r="J13" t="n">
         <v>4646</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +887,23 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>6897.158769290003</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4691</v>
       </c>
       <c r="I14" t="n">
-        <v>4691</v>
-      </c>
-      <c r="J14" t="n">
         <v>4646</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +925,23 @@
         <v>750.47</v>
       </c>
       <c r="G15" t="n">
-        <v>7647.628769290003</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4691</v>
       </c>
       <c r="I15" t="n">
-        <v>4691</v>
-      </c>
-      <c r="J15" t="n">
         <v>4646</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +963,23 @@
         <v>905</v>
       </c>
       <c r="G16" t="n">
-        <v>8552.628769290004</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4709</v>
       </c>
       <c r="I16" t="n">
-        <v>4709</v>
-      </c>
-      <c r="J16" t="n">
         <v>4646</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +1001,23 @@
         <v>1668.5985</v>
       </c>
       <c r="G17" t="n">
-        <v>10221.22726929</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4710</v>
       </c>
       <c r="I17" t="n">
-        <v>4710</v>
-      </c>
-      <c r="J17" t="n">
         <v>4646</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1039,23 @@
         <v>36.8</v>
       </c>
       <c r="G18" t="n">
-        <v>10258.02726929</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4717</v>
       </c>
       <c r="I18" t="n">
-        <v>4717</v>
-      </c>
-      <c r="J18" t="n">
         <v>4646</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1077,23 @@
         <v>253.7212</v>
       </c>
       <c r="G19" t="n">
-        <v>10004.30606929</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>4776</v>
       </c>
       <c r="I19" t="n">
-        <v>4776</v>
-      </c>
-      <c r="J19" t="n">
         <v>4646</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,24 +1115,23 @@
         <v>306</v>
       </c>
       <c r="G20" t="n">
-        <v>9698.306069290004</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>4728</v>
+      </c>
+      <c r="I20" t="n">
         <v>4646</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1213,26 +1153,23 @@
         <v>31.17</v>
       </c>
       <c r="G21" t="n">
-        <v>9729.476069290004</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4725</v>
       </c>
       <c r="I21" t="n">
-        <v>4725</v>
-      </c>
-      <c r="J21" t="n">
         <v>4646</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,24 +1191,23 @@
         <v>56.3263</v>
       </c>
       <c r="G22" t="n">
-        <v>9673.149769290003</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>4736</v>
+      </c>
+      <c r="I22" t="n">
         <v>4646</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,26 +1229,21 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>9673.149769290003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>4724</v>
-      </c>
-      <c r="J23" t="n">
         <v>4646</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,24 +1265,23 @@
         <v>142</v>
       </c>
       <c r="G24" t="n">
-        <v>9815.149769290003</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>4724</v>
+      </c>
+      <c r="I24" t="n">
         <v>4646</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1373,24 +1303,23 @@
         <v>17.9244</v>
       </c>
       <c r="G25" t="n">
-        <v>9833.074169290003</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>4734</v>
+      </c>
+      <c r="I25" t="n">
         <v>4646</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,24 +1341,23 @@
         <v>572.127</v>
       </c>
       <c r="G26" t="n">
-        <v>10405.20116929</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>4770</v>
+      </c>
+      <c r="I26" t="n">
         <v>4646</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,24 +1379,23 @@
         <v>50.9901</v>
       </c>
       <c r="G27" t="n">
-        <v>10456.19126929</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>4773</v>
+      </c>
+      <c r="I27" t="n">
         <v>4646</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,24 +1417,23 @@
         <v>1617.3287</v>
       </c>
       <c r="G28" t="n">
-        <v>12073.51996929</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>4785</v>
+      </c>
+      <c r="I28" t="n">
         <v>4646</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1529,24 +1455,23 @@
         <v>547.9492</v>
       </c>
       <c r="G29" t="n">
-        <v>12073.51996929</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>4810</v>
+      </c>
+      <c r="I29" t="n">
         <v>4646</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,24 +1493,23 @@
         <v>169.844</v>
       </c>
       <c r="G30" t="n">
-        <v>12243.36396929</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>4810</v>
+      </c>
+      <c r="I30" t="n">
         <v>4646</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1607,24 +1531,23 @@
         <v>49.4158</v>
       </c>
       <c r="G31" t="n">
-        <v>12292.77976929</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>4856</v>
+      </c>
+      <c r="I31" t="n">
         <v>4646</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,24 +1569,21 @@
         <v>99</v>
       </c>
       <c r="G32" t="n">
-        <v>12391.77976929</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>4646</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,24 +1605,21 @@
         <v>201.5889</v>
       </c>
       <c r="G33" t="n">
-        <v>12190.19086929</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>4646</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,24 +1641,21 @@
         <v>20.76</v>
       </c>
       <c r="G34" t="n">
-        <v>12169.43086929</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>4646</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1763,24 +1677,23 @@
         <v>62.8918</v>
       </c>
       <c r="G35" t="n">
-        <v>12232.32266929</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>4826</v>
+      </c>
+      <c r="I35" t="n">
         <v>4646</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,24 +1715,21 @@
         <v>1.8198</v>
       </c>
       <c r="G36" t="n">
-        <v>12230.50286929</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>4646</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,24 +1751,23 @@
         <v>168.005</v>
       </c>
       <c r="G37" t="n">
-        <v>12398.50786929</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>4834</v>
+      </c>
+      <c r="I37" t="n">
         <v>4646</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,24 +1789,21 @@
         <v>123.2934</v>
       </c>
       <c r="G38" t="n">
-        <v>12521.80126929</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>4646</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1919,24 +1825,21 @@
         <v>97.06999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>12618.87126929</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>4646</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,24 +1861,21 @@
         <v>132.0794</v>
       </c>
       <c r="G40" t="n">
-        <v>12750.95066929</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>4646</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,24 +1897,21 @@
         <v>331.0502</v>
       </c>
       <c r="G41" t="n">
-        <v>13082.00086929</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>4646</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,24 +1933,21 @@
         <v>1058.378</v>
       </c>
       <c r="G42" t="n">
-        <v>14140.37886929</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>4646</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2075,24 +1969,21 @@
         <v>250.6071</v>
       </c>
       <c r="G43" t="n">
-        <v>13889.77176929</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>4646</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K43" t="n">
+        <v>1.08303271631511</v>
+      </c>
       <c r="L43" t="n">
-        <v>1.08303271631511</v>
-      </c>
-      <c r="M43" t="n">
         <v>1.000861326442722</v>
       </c>
     </row>
@@ -2116,18 +2007,15 @@
         <v>315.7614</v>
       </c>
       <c r="G44" t="n">
-        <v>14205.53316929</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2149,18 +2037,15 @@
         <v>295.8096</v>
       </c>
       <c r="G45" t="n">
-        <v>13909.72356929</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2182,18 +2067,15 @@
         <v>4.6243</v>
       </c>
       <c r="G46" t="n">
-        <v>13909.72356929</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2215,18 +2097,15 @@
         <v>28.897</v>
       </c>
       <c r="G47" t="n">
-        <v>13938.62056929</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,18 +2127,15 @@
         <v>133.1256</v>
       </c>
       <c r="G48" t="n">
-        <v>14071.74616929</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,18 +2157,15 @@
         <v>2.9925</v>
       </c>
       <c r="G49" t="n">
-        <v>14068.75366929</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,18 +2187,15 @@
         <v>8.447796260000001</v>
       </c>
       <c r="G50" t="n">
-        <v>14077.20146555</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2347,18 +2217,15 @@
         <v>9.94</v>
       </c>
       <c r="G51" t="n">
-        <v>14067.26146555</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2380,18 +2247,15 @@
         <v>117.74481688</v>
       </c>
       <c r="G52" t="n">
-        <v>14185.00628243</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2413,18 +2277,15 @@
         <v>33.8047</v>
       </c>
       <c r="G53" t="n">
-        <v>14218.81098243</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,18 +2307,15 @@
         <v>60.75248312</v>
       </c>
       <c r="G54" t="n">
-        <v>14279.56346555</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2479,18 +2337,15 @@
         <v>88.50839999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>14279.56346555</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,18 +2367,15 @@
         <v>127.1634</v>
       </c>
       <c r="G56" t="n">
-        <v>14152.40006555</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2545,18 +2397,15 @@
         <v>93</v>
       </c>
       <c r="G57" t="n">
-        <v>14059.40006555</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2578,18 +2427,15 @@
         <v>64.6397</v>
       </c>
       <c r="G58" t="n">
-        <v>13994.76036555</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2611,18 +2457,15 @@
         <v>16.2671</v>
       </c>
       <c r="G59" t="n">
-        <v>14011.02746555</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2644,18 +2487,15 @@
         <v>29.6633</v>
       </c>
       <c r="G60" t="n">
-        <v>13981.36416555</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2677,18 +2517,15 @@
         <v>160</v>
       </c>
       <c r="G61" t="n">
-        <v>14141.36416555</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2710,18 +2547,15 @@
         <v>7.15</v>
       </c>
       <c r="G62" t="n">
-        <v>14134.21416555</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2743,18 +2577,15 @@
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>14134.31416555</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,18 +2607,15 @@
         <v>25.0601</v>
       </c>
       <c r="G64" t="n">
-        <v>14134.31416555</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2809,18 +2637,15 @@
         <v>68.88500000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>14065.42916555</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2842,18 +2667,15 @@
         <v>49.1</v>
       </c>
       <c r="G66" t="n">
-        <v>14016.32916555</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2875,18 +2697,15 @@
         <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>14016.42916555</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,18 +2727,15 @@
         <v>24</v>
       </c>
       <c r="G68" t="n">
-        <v>13992.42916555</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2941,18 +2757,15 @@
         <v>100.5874</v>
       </c>
       <c r="G69" t="n">
-        <v>14093.01656555</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2974,18 +2787,15 @@
         <v>24.9974</v>
       </c>
       <c r="G70" t="n">
-        <v>14068.01916555</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3007,18 +2817,15 @@
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>14067.91916555</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,18 +2847,15 @@
         <v>3.1346</v>
       </c>
       <c r="G72" t="n">
-        <v>14064.78456555</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3073,18 +2877,15 @@
         <v>29</v>
       </c>
       <c r="G73" t="n">
-        <v>14093.78456555</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3106,18 +2907,15 @@
         <v>46.9777</v>
       </c>
       <c r="G74" t="n">
-        <v>14140.76226555</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3139,18 +2937,15 @@
         <v>80</v>
       </c>
       <c r="G75" t="n">
-        <v>14220.76226555</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,18 +2967,15 @@
         <v>40.49864497</v>
       </c>
       <c r="G76" t="n">
-        <v>14261.26091052</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3205,18 +2997,15 @@
         <v>125.7023</v>
       </c>
       <c r="G77" t="n">
-        <v>14135.55861052</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3238,18 +3027,15 @@
         <v>2.2208</v>
       </c>
       <c r="G78" t="n">
-        <v>14137.77941052</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3271,18 +3057,15 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>14037.77941052</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,18 +3087,21 @@
         <v>254.808</v>
       </c>
       <c r="G80" t="n">
-        <v>13782.97141052</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>4727</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3337,18 +3123,21 @@
         <v>54.6010879</v>
       </c>
       <c r="G81" t="n">
-        <v>13837.57249842</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>4719</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3370,18 +3159,19 @@
         <v>235</v>
       </c>
       <c r="G82" t="n">
-        <v>14072.57249842</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3403,18 +3193,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>14062.77249842</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3436,18 +3227,19 @@
         <v>6.25</v>
       </c>
       <c r="G84" t="n">
-        <v>14069.02249842</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3469,18 +3261,19 @@
         <v>6.25</v>
       </c>
       <c r="G85" t="n">
-        <v>14069.02249842</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,18 +3295,19 @@
         <v>22.4</v>
       </c>
       <c r="G86" t="n">
-        <v>14046.62249842001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3535,18 +3329,19 @@
         <v>6.8</v>
       </c>
       <c r="G87" t="n">
-        <v>14053.42249842</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3568,18 +3363,19 @@
         <v>78.00034187999999</v>
       </c>
       <c r="G88" t="n">
-        <v>14131.42284030001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3601,18 +3397,19 @@
         <v>18.93</v>
       </c>
       <c r="G89" t="n">
-        <v>14112.4928403</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3634,18 +3431,19 @@
         <v>36.4</v>
       </c>
       <c r="G90" t="n">
-        <v>14076.09284030001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,18 +3465,19 @@
         <v>46.4</v>
       </c>
       <c r="G91" t="n">
-        <v>14122.4928403</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,18 +3499,19 @@
         <v>69.3725</v>
       </c>
       <c r="G92" t="n">
-        <v>14191.8653403</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,18 +3533,19 @@
         <v>66.65000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>14125.2153403</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3766,18 +3567,19 @@
         <v>69.3725</v>
       </c>
       <c r="G94" t="n">
-        <v>14055.84284030001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3799,18 +3601,19 @@
         <v>50.1412</v>
       </c>
       <c r="G95" t="n">
-        <v>14105.98404030001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3832,18 +3635,19 @@
         <v>2.3063</v>
       </c>
       <c r="G96" t="n">
-        <v>14108.29034030001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3865,18 +3669,19 @@
         <v>0.13</v>
       </c>
       <c r="G97" t="n">
-        <v>14108.29034030001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3898,18 +3703,19 @@
         <v>15.5637</v>
       </c>
       <c r="G98" t="n">
-        <v>14108.29034030001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3931,18 +3737,19 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>14098.29034030001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3964,18 +3771,19 @@
         <v>7</v>
       </c>
       <c r="G100" t="n">
-        <v>14105.29034030001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3997,18 +3805,19 @@
         <v>11.3318</v>
       </c>
       <c r="G101" t="n">
-        <v>14105.29034030001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4030,18 +3839,19 @@
         <v>10.4035</v>
       </c>
       <c r="G102" t="n">
-        <v>14105.29034030001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4063,18 +3873,19 @@
         <v>45.1</v>
       </c>
       <c r="G103" t="n">
-        <v>14150.39034030001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4096,18 +3907,19 @@
         <v>206.3861</v>
       </c>
       <c r="G104" t="n">
-        <v>14356.77644030001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,18 +3941,19 @@
         <v>41.25</v>
       </c>
       <c r="G105" t="n">
-        <v>14315.52644030001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4162,18 +3975,19 @@
         <v>7.4</v>
       </c>
       <c r="G106" t="n">
-        <v>14308.12644030001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4195,18 +4009,19 @@
         <v>50.9127</v>
       </c>
       <c r="G107" t="n">
-        <v>14257.21374030001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4228,18 +4043,19 @@
         <v>291.6452</v>
       </c>
       <c r="G108" t="n">
-        <v>14548.85894030001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4261,18 +4077,19 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>14648.85894030001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4294,18 +4111,19 @@
         <v>64.0882</v>
       </c>
       <c r="G110" t="n">
-        <v>14584.77074030001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4327,18 +4145,19 @@
         <v>314.4311</v>
       </c>
       <c r="G111" t="n">
-        <v>14270.33964030001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4360,18 +4179,19 @@
         <v>8.8157</v>
       </c>
       <c r="G112" t="n">
-        <v>14279.15534030001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4393,18 +4213,19 @@
         <v>31.1399</v>
       </c>
       <c r="G113" t="n">
-        <v>14310.29524030001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4426,18 +4247,21 @@
         <v>85.70959999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>14224.58564030001</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>4820</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4459,18 +4283,21 @@
         <v>1.2337</v>
       </c>
       <c r="G115" t="n">
-        <v>14223.3519403</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>4819</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4492,18 +4319,21 @@
         <v>8.130000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>14223.3519403</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4525,18 +4355,21 @@
         <v>154.7635</v>
       </c>
       <c r="G117" t="n">
-        <v>14068.58844030001</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
